--- a/Inputs/variants.xlsx
+++ b/Inputs/variants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA9ED73-866C-F043-B3D9-27B7DFEBE6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F64B8A-D5DD-1345-9E8E-A47DC122BF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3680" yWindow="1820" windowWidth="27640" windowHeight="16940" xr2:uid="{709315D1-E826-7745-85B7-AA2E5505B52E}"/>
   </bookViews>
@@ -410,7 +410,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -443,16 +443,16 @@
         <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C2" s="1">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1">
         <v>9</v>
-      </c>
-      <c r="D2" s="1">
-        <v>16</v>
-      </c>
-      <c r="E2" s="1">
-        <v>7</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -463,7 +463,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -472,7 +472,7 @@
         <v>11</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -483,16 +483,16 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
         <v>4</v>
       </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
       <c r="E4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4">
         <v>0</v>
